--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-0.15/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-0.15/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="934">
   <si>
     <t>anchor score</t>
   </si>
@@ -400,400 +400,400 @@
     <t>19</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>straight</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>wash</t>
   </si>
   <si>
     <t>safe</t>
@@ -3184,7 +3184,7 @@
         <v>121</v>
       </c>
       <c r="J1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3242,7 +3242,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03178523116965552</v>
+        <v>0.03229274056700264</v>
       </c>
       <c r="C3">
         <v>136</v>
@@ -3263,16 +3263,16 @@
         <v>156</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K3">
-        <v>0.005832624794524699</v>
+        <v>0.008343939529433124</v>
       </c>
       <c r="L3">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="M3">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>56</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3292,7 +3292,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02128731259649728</v>
+        <v>0.02162720350776118</v>
       </c>
       <c r="C4">
         <v>61</v>
@@ -3313,28 +3313,28 @@
         <v>455</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>137</v>
+        <v>259</v>
       </c>
       <c r="K4">
-        <v>0.005204213384991722</v>
+        <v>0.007855559334235606</v>
       </c>
       <c r="L4">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="M4">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="N4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>210</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3342,7 +3342,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01123777625082272</v>
+        <v>0.01141720791901274</v>
       </c>
       <c r="C5">
         <v>17</v>
@@ -3363,16 +3363,16 @@
         <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K5">
-        <v>0.004664403996990018</v>
+        <v>0.005832624794524699</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3392,7 +3392,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01123777625082272</v>
+        <v>0.01141720791901274</v>
       </c>
       <c r="C6">
         <v>17</v>
@@ -3413,28 +3413,28 @@
         <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>262</v>
+        <v>135</v>
       </c>
       <c r="K6">
-        <v>0.004171969764716562</v>
+        <v>0.005204213384991722</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>19</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3442,7 +3442,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01055605269906748</v>
+        <v>0.01072459940288326</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -3463,16 +3463,16 @@
         <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K7">
-        <v>0.004027232865770006</v>
+        <v>0.004664403996990018</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>445</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3492,7 +3492,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009441620563674005</v>
+        <v>0.00959237331852025</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -3513,28 +3513,28 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>69</v>
+        <v>262</v>
       </c>
       <c r="K8">
-        <v>0.003726528694794962</v>
+        <v>0.004171969764716562</v>
       </c>
       <c r="L8">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="M8">
-        <v>292</v>
+        <v>44</v>
       </c>
       <c r="N8">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>2815</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3542,7 +3542,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.008176683261035239</v>
+        <v>0.008307238976422576</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -3563,28 +3563,28 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>138</v>
+        <v>263</v>
       </c>
       <c r="K9">
-        <v>0.003680993670871166</v>
+        <v>0.004027232865770006</v>
       </c>
       <c r="L9">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="M9">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="N9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3592,7 +3592,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.007709050908656735</v>
+        <v>0.00783214001755413</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3613,28 +3613,28 @@
         <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>264</v>
+        <v>69</v>
       </c>
       <c r="K10">
-        <v>0.003444890655116762</v>
+        <v>0.003726528694794962</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>281</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>292</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3642,7 +3642,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.007709050908656735</v>
+        <v>0.00783214001755413</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -3663,25 +3663,25 @@
         <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="K11">
-        <v>0.003444890655116762</v>
+        <v>0.003680993670871166</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <v>21</v>
@@ -3692,7 +3692,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.007211156819347959</v>
+        <v>0.0073262961377323</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -3713,16 +3713,16 @@
         <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K12">
-        <v>0.003268110228119565</v>
+        <v>0.003444890655116762</v>
       </c>
       <c r="L12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3742,7 +3742,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006676233925964241</v>
+        <v>0.006782832221198575</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -3763,16 +3763,16 @@
         <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K13">
-        <v>0.003144740533243667</v>
+        <v>0.003444890655116762</v>
       </c>
       <c r="L13">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>118</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3792,7 +3792,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006676233925964241</v>
+        <v>0.006782832221198575</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -3813,16 +3813,16 @@
         <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K14">
-        <v>0.003081203871957946</v>
+        <v>0.003268110228119565</v>
       </c>
       <c r="L14">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>243</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3842,7 +3842,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.006676233925964241</v>
+        <v>0.006782832221198575</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -3863,28 +3863,28 @@
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>140</v>
+        <v>267</v>
       </c>
       <c r="K15">
-        <v>0.003034223118805668</v>
+        <v>0.003144740533243667</v>
       </c>
       <c r="L15">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="N15">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>335</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3892,7 +3892,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006676233925964241</v>
+        <v>0.006782832221198575</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -3913,16 +3913,16 @@
         <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K16">
-        <v>0.003016329156393846</v>
+        <v>0.003081203871957946</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>192</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3942,7 +3942,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.006676233925964241</v>
+        <v>0.006782832221198575</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -3963,28 +3963,28 @@
         <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>270</v>
+        <v>138</v>
       </c>
       <c r="K17">
-        <v>0.003016329156393846</v>
+        <v>0.003034223118805668</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="M17">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3992,7 +3992,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006676233925964241</v>
+        <v>0.006782832221198575</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -4013,7 +4013,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K18">
         <v>0.003016329156393846</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4042,7 +4042,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006094539867386484</v>
+        <v>0.006191850352205551</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -4063,28 +4063,28 @@
         <v>26</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="K19">
-        <v>0.002986294861455636</v>
+        <v>0.003016329156393846</v>
       </c>
       <c r="L19">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="M19">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="N19">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>3058</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4092,7 +4092,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006094539867386484</v>
+        <v>0.006191850352205551</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -4113,16 +4113,16 @@
         <v>46</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K20">
-        <v>0.002950028111536327</v>
+        <v>0.003016329156393846</v>
       </c>
       <c r="L20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4134,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>42</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4142,7 +4142,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006094539867386484</v>
+        <v>0.006191850352205551</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -4163,28 +4163,28 @@
         <v>144</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K21">
-        <v>0.002798925144667943</v>
+        <v>0.002986294861455636</v>
       </c>
       <c r="L21">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="M21">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="N21">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O21">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>77</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4192,7 +4192,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006094539867386484</v>
+        <v>0.006191850352205551</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -4213,28 +4213,28 @@
         <v>29</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>127</v>
+        <v>272</v>
       </c>
       <c r="K22">
-        <v>0.002778375242541253</v>
+        <v>0.002950028111536327</v>
       </c>
       <c r="L22">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>209</v>
+        <v>22</v>
       </c>
       <c r="N22">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1934</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4242,7 +4242,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005451122174023493</v>
+        <v>0.005538159317615051</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -4263,28 +4263,28 @@
         <v>34</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K23">
-        <v>0.002744180081835696</v>
+        <v>0.002778375242541253</v>
       </c>
       <c r="L23">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="M23">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="N23">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O23">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4292,7 +4292,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005451122174023493</v>
+        <v>0.005538159317615051</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -4313,28 +4313,28 @@
         <v>5</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>273</v>
+        <v>134</v>
       </c>
       <c r="K24">
-        <v>0.002593219476744969</v>
+        <v>0.002744180081835696</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4342,7 +4342,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005451122174023493</v>
+        <v>0.005538159317615051</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -4363,7 +4363,7 @@
         <v>9</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K25">
         <v>0.002593219476744969</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4392,7 +4392,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005451122174023493</v>
+        <v>0.005538159317615051</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -4413,28 +4413,28 @@
         <v>22</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>133</v>
+        <v>274</v>
       </c>
       <c r="K26">
-        <v>0.002536135647806314</v>
+        <v>0.002593219476744969</v>
       </c>
       <c r="L26">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="M26">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="N26">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4442,7 +4442,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005451122174023493</v>
+        <v>0.005538159317615051</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -4463,28 +4463,28 @@
         <v>2</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>275</v>
+        <v>131</v>
       </c>
       <c r="K27">
-        <v>0.002515792426594934</v>
+        <v>0.002536135647806314</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>131</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4492,7 +4492,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005451122174023493</v>
+        <v>0.005538159317615051</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -4513,28 +4513,28 @@
         <v>73</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="K28">
-        <v>0.002512177124680904</v>
+        <v>0.002515792426594934</v>
       </c>
       <c r="L28">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="N28">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>41</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4542,7 +4542,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005451122174023493</v>
+        <v>0.005538159317615051</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -4563,16 +4563,16 @@
         <v>6</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K29">
-        <v>0.002491339916470514</v>
+        <v>0.002512177124680904</v>
       </c>
       <c r="L29">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="M29">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="N29">
         <v>0.97</v>
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>798</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4592,7 +4592,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005451122174023493</v>
+        <v>0.005538159317615051</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -4613,16 +4613,16 @@
         <v>16</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K30">
-        <v>0.002446268138392488</v>
+        <v>0.002491339916470514</v>
       </c>
       <c r="L30">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M30">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N30">
         <v>0.97</v>
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>793</v>
+        <v>798</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4642,7 +4642,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005451122174023493</v>
+        <v>0.005538159317615051</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -4663,28 +4663,28 @@
         <v>12</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>276</v>
+        <v>133</v>
       </c>
       <c r="K31">
-        <v>0.002353308329139718</v>
+        <v>0.002446268138392488</v>
       </c>
       <c r="L31">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="M31">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>4</v>
+        <v>793</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4692,7 +4692,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -4713,7 +4713,7 @@
         <v>9</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K32">
         <v>0.002353308329139718</v>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>59</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4742,7 +4742,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -4763,7 +4763,7 @@
         <v>18</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K33">
         <v>0.002353308329139718</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4792,7 +4792,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -4813,7 +4813,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K34">
         <v>0.002353308329139718</v>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>294</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4842,7 +4842,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -4863,28 +4863,28 @@
         <v>4</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>128</v>
+        <v>279</v>
       </c>
       <c r="K35">
-        <v>0.002320215161094114</v>
+        <v>0.002353308329139718</v>
       </c>
       <c r="L35">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>153</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4892,7 +4892,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -4942,7 +4942,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -4992,7 +4992,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -5042,7 +5042,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -5092,7 +5092,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -5142,7 +5142,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -5192,7 +5192,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -5242,7 +5242,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -5292,7 +5292,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -5342,7 +5342,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -5392,7 +5392,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004720810281837002</v>
+        <v>0.004796186659260125</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -5442,7 +5442,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -5463,7 +5463,7 @@
         <v>9</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K47">
         <v>0.002044479427217869</v>
@@ -5492,7 +5492,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -5542,7 +5542,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -5592,7 +5592,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -5642,7 +5642,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -5692,7 +5692,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -5742,7 +5742,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -5792,7 +5792,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -5842,7 +5842,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -5892,7 +5892,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -5913,7 +5913,7 @@
         <v>14</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K56">
         <v>0.001988133617319368</v>
@@ -5942,7 +5942,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -5992,7 +5992,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -6042,7 +6042,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -6092,7 +6092,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -6142,7 +6142,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -6192,7 +6192,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -6242,7 +6242,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003854525454328368</v>
+        <v>0.003916070008777065</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -6292,7 +6292,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003195131658635781</v>
+        <v>0.003246147784139597</v>
       </c>
       <c r="C64">
         <v>11</v>
@@ -6342,7 +6342,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -6392,7 +6392,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -6442,7 +6442,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6492,7 +6492,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -6513,7 +6513,7 @@
         <v>6</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K68">
         <v>0.001799152654121003</v>
@@ -6542,7 +6542,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -6563,7 +6563,7 @@
         <v>10</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K69">
         <v>0.001799152654121003</v>
@@ -6592,7 +6592,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6642,7 +6642,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6692,7 +6692,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -6742,7 +6742,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -6792,7 +6792,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -6842,7 +6842,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -6892,7 +6892,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -6942,7 +6942,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -6992,7 +6992,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -7042,7 +7042,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7092,7 +7092,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7142,7 +7142,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7192,7 +7192,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7242,7 +7242,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7292,7 +7292,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7342,7 +7342,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7392,7 +7392,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7413,7 +7413,7 @@
         <v>5</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K86">
         <v>0.001653413224821678</v>
@@ -7442,7 +7442,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7492,7 +7492,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7542,7 +7542,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7592,7 +7592,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7642,7 +7642,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7692,7 +7692,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7742,7 +7742,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7792,7 +7792,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7842,7 +7842,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -7892,7 +7892,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -7942,7 +7942,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -7992,7 +7992,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8042,7 +8042,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8092,7 +8092,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8142,7 +8142,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8192,7 +8192,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8242,7 +8242,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8292,7 +8292,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8342,7 +8342,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8392,7 +8392,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8442,7 +8442,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8492,7 +8492,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8542,7 +8542,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8563,7 +8563,7 @@
         <v>5</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K109">
         <v>0.001464238598962382</v>
@@ -8592,7 +8592,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         <v>251</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K110">
         <v>0.001425311779255155</v>
@@ -8642,7 +8642,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8692,7 +8692,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8742,7 +8742,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8792,7 +8792,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8842,7 +8842,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8892,7 +8892,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8942,7 +8942,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -8992,7 +8992,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9042,7 +9042,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9092,7 +9092,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9142,7 +9142,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002725561087011746</v>
+        <v>0.002769079658807525</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9192,7 +9192,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002699016057118879</v>
+        <v>0.002742110788922695</v>
       </c>
       <c r="C122">
         <v>10</v>
@@ -9242,25 +9242,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002513676442349436</v>
+        <v>0.002230364879326155</v>
       </c>
       <c r="C123">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D123">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="E123">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F123">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>153</v>
+        <v>3058</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>360</v>
@@ -9292,25 +9292,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002378733099962613</v>
+        <v>0.002147335205300764</v>
       </c>
       <c r="C124">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D124">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="E124">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F124">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>361</v>
@@ -9342,13 +9342,13 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002195312693729755</v>
+        <v>0.002062775513910412</v>
       </c>
       <c r="C125">
         <v>4</v>
       </c>
       <c r="D125">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E125">
         <v>0.97</v>
@@ -9360,7 +9360,7 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>3058</v>
+        <v>41</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>362</v>
@@ -9392,25 +9392,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002113587905542068</v>
+        <v>0.001914933316988471</v>
       </c>
       <c r="C126">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D126">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E126">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F126">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>363</v>
@@ -9442,13 +9442,13 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002030357145585341</v>
+        <v>0.001899827846644838</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D127">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E127">
         <v>0.97</v>
@@ -9460,7 +9460,7 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>41</v>
+        <v>798</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>364</v>
@@ -9492,13 +9492,13 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001884838421460843</v>
+        <v>0.001884396477158349</v>
       </c>
       <c r="C128">
         <v>3</v>
       </c>
       <c r="D128">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E128">
         <v>0.97</v>
@@ -9510,7 +9510,7 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>15</v>
+        <v>793</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>365</v>
@@ -9542,25 +9542,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.00186997034713923</v>
+        <v>0.00176231815028468</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D129">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E129">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F129">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>798</v>
+        <v>16</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>366</v>
@@ -9592,25 +9592,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001854781495472252</v>
+        <v>0.001747074831161245</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="E130">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F130">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>793</v>
+        <v>210</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>367</v>
@@ -9642,25 +9642,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.001734621739057856</v>
+        <v>0.001574101647213634</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E131">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F131">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>368</v>
@@ -9692,25 +9692,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.00171961798237372</v>
+        <v>0.001535410561621292</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D132">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="E132">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F132">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>369</v>
@@ -9742,13 +9742,13 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.001549363227237078</v>
+        <v>0.001475235049913238</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E133">
         <v>0.99</v>
@@ -9760,7 +9760,7 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>21</v>
+        <v>335</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>370</v>
@@ -9792,28 +9792,28 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001511280206775997</v>
+        <v>0.001470207848135863</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D134">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E134">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F134">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>15</v>
+        <v>1090</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K134">
         <v>0.001374016047851991</v>
@@ -9842,28 +9842,28 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001452050407235625</v>
+        <v>0.001453068069932332</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D135">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E135">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F135">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>335</v>
+        <v>805</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K135">
         <v>0.001346580745898924</v>
@@ -9892,28 +9892,28 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001447102212445566</v>
+        <v>0.001452436396944403</v>
       </c>
       <c r="C136">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D136">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E136">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F136">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>1090</v>
+        <v>357</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K136">
         <v>0.001306609244282637</v>
@@ -9942,28 +9942,28 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001430231801237651</v>
+        <v>0.001437775871738753</v>
       </c>
       <c r="C137">
         <v>4</v>
       </c>
       <c r="D137">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E137">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F137">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>805</v>
+        <v>33</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K137">
         <v>0.00126624312530845</v>
@@ -9992,25 +9992,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001429610055557587</v>
+        <v>0.001437729438946051</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D138">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E138">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F138">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>357</v>
+        <v>37</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>371</v>
@@ -10042,25 +10042,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001415179933661823</v>
+        <v>0.00128973682457575</v>
       </c>
       <c r="C139">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D139">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E139">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F139">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>372</v>
@@ -10092,25 +10092,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001415134230602126</v>
+        <v>0.001207965195468924</v>
       </c>
       <c r="C140">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E140">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="F140">
-        <v>0.08999999999999997</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>373</v>
@@ -10142,25 +10142,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001269467452974454</v>
+        <v>0.001207965195468924</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E141">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F141">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>169</v>
+        <v>2</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>374</v>
@@ -10192,25 +10192,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001188980938400474</v>
+        <v>0.001197079295161954</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E142">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F142">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>375</v>
@@ -10242,25 +10242,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001188980938400474</v>
+        <v>0.001165654215990355</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E143">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F143">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>527</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>376</v>
@@ -10292,25 +10292,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001178266119785779</v>
+        <v>0.001105587266043477</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E144">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F144">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>377</v>
@@ -10342,25 +10342,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001147334913934063</v>
+        <v>0.001078375104237619</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D145">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E145">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F145">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>527</v>
+        <v>600</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>378</v>
@@ -10392,25 +10392,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001088211970009367</v>
+        <v>0.001069076079643162</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E146">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F146">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>379</v>
@@ -10442,25 +10442,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.00106142747174634</v>
+        <v>0.001064810165980763</v>
       </c>
       <c r="C147">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E147">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F147">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>600</v>
+        <v>16</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>380</v>
@@ -10492,25 +10492,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001052274589668281</v>
+        <v>0.001050281545215051</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E148">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F148">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>381</v>
@@ -10542,25 +10542,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001048075718667295</v>
+        <v>0.00104859607263139</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149">
         <v>32</v>
       </c>
       <c r="E149">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F149">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>382</v>
@@ -10592,13 +10592,13 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001033775428214825</v>
+        <v>0.001035234500194242</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E150">
         <v>0.97</v>
@@ -10610,7 +10610,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>128</v>
+        <v>319</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>383</v>
@@ -10642,25 +10642,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001032116444345351</v>
+        <v>0.001028186725924194</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D151">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E151">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F151">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>292</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>384</v>
@@ -10692,25 +10692,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001018964861009657</v>
+        <v>0.00100567302154392</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152">
         <v>30</v>
       </c>
       <c r="E152">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F152">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>319</v>
+        <v>129</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>385</v>
@@ -10742,25 +10742,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.0010120278488369</v>
+        <v>0.0009866193296825347</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E153">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F153">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>292</v>
+        <v>136</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>386</v>
@@ -10792,25 +10792,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.0009898679675246417</v>
+        <v>0.0009318579237638418</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E154">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F154">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>387</v>
@@ -10842,25 +10842,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.000971113721529542</v>
+        <v>0.0008911800021187792</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E155">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F155">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>388</v>
@@ -10892,25 +10892,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.0009172129402474608</v>
+        <v>0.0008849020226361769</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E156">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F156">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>389</v>
@@ -10942,13 +10942,13 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0008771743086452048</v>
+        <v>0.0008693712897845236</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E157">
         <v>0.95</v>
@@ -10960,7 +10960,7 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>390</v>
@@ -10992,25 +10992,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0008709949932439976</v>
+        <v>0.0008223491999320382</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E158">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F158">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>391</v>
@@ -11042,13 +11042,13 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.0008557083397963065</v>
+        <v>0.0008223491999320382</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E159">
         <v>0.95</v>
@@ -11060,7 +11060,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>392</v>
@@ -11092,25 +11092,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.0008094252442832306</v>
+        <v>0.0008009895201552031</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E160">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F160">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>393</v>
@@ -11142,25 +11142,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0008094252442832306</v>
+        <v>0.0007706797358052748</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E161">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F161">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>218</v>
+        <v>113</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>394</v>
@@ -11192,25 +11192,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0007884012510421536</v>
+        <v>0.0007059878517454569</v>
       </c>
       <c r="C162">
         <v>2</v>
       </c>
       <c r="D162">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E162">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F162">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>395</v>
@@ -11242,25 +11242,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0007585678121531266</v>
+        <v>0.0006440298460478322</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E163">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F163">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>396</v>
@@ -11292,25 +11292,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0006948926191054674</v>
+        <v>0.0006440298460478322</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E164">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F164">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>397</v>
@@ -11342,25 +11342,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0006339083390681714</v>
+        <v>0.0006350937640538392</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E165">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F165">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>398</v>
@@ -11392,13 +11392,13 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0006339083390681714</v>
+        <v>0.0006067105053637958</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E166">
         <v>0.92</v>
@@ -11410,7 +11410,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>399</v>
@@ -11442,25 +11442,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0006251126956219074</v>
+        <v>0.0006067105053637958</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E167">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F167">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>400</v>
@@ -11492,25 +11492,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.000597175505313166</v>
+        <v>0.0005969812605043634</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E168">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F168">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>401</v>
@@ -11542,25 +11542,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.000597175505313166</v>
+        <v>0.0005663851213611029</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E169">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F169">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>402</v>
@@ -11592,25 +11592,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0005875991642676732</v>
+        <v>0.0005663851213611029</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E170">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F170">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>403</v>
@@ -11642,25 +11642,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0005574838709078644</v>
+        <v>0.0005225859067322207</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E171">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F171">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>404</v>
@@ -11692,25 +11692,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0005574838709078644</v>
+        <v>0.0005225859067322207</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E172">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F172">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>405</v>
@@ -11742,25 +11742,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0005143730002420614</v>
+        <v>0.0004747376406617426</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E173">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F173">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>406</v>
@@ -11792,25 +11792,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0005143730002420614</v>
+        <v>0.0004747376406617426</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E174">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F174">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>407</v>
@@ -11842,7 +11842,7 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0004672767126116649</v>
+        <v>0.0004747376406617426</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -11860,7 +11860,7 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>408</v>
@@ -11892,7 +11892,7 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0004672767126116649</v>
+        <v>0.0004747376406617426</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -11910,7 +11910,7 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>409</v>
@@ -11942,25 +11942,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0004672767126116649</v>
+        <v>0.0004699861379040148</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E177">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F177">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>410</v>
@@ -11992,25 +11992,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0004672767126116649</v>
+        <v>0.0004699861379040148</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E178">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F178">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>129</v>
+        <v>532</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>411</v>
@@ -12042,25 +12042,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0004625998839837486</v>
+        <v>0.0004524906879190956</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D179">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E179">
-        <v>0.85</v>
+        <v>0.2</v>
       </c>
       <c r="F179">
-        <v>0.15</v>
+        <v>0.8</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>412</v>
@@ -12092,25 +12092,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0004625998839837486</v>
+        <v>0.0004227965925253666</v>
       </c>
       <c r="C180">
         <v>2</v>
       </c>
       <c r="D180">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E180">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="F180">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>532</v>
+        <v>115</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>413</v>
@@ -12142,25 +12142,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0004453793906956677</v>
+        <v>0.0004227965925253666</v>
       </c>
       <c r="C181">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D181">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E181">
-        <v>0.2</v>
+        <v>0.83</v>
       </c>
       <c r="F181">
-        <v>0.8</v>
+        <v>0.17</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>414</v>
@@ -12192,7 +12192,7 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0004161519646583773</v>
+        <v>0.0004227965925253666</v>
       </c>
       <c r="C182">
         <v>2</v>
@@ -12210,7 +12210,7 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>415</v>
@@ -12242,25 +12242,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0004161519646583773</v>
+        <v>0.0003728442414756734</v>
       </c>
       <c r="C183">
         <v>2</v>
       </c>
       <c r="D183">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E183">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F183">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>416</v>
@@ -12292,25 +12292,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0004161519646583773</v>
+        <v>0.0003638864657844456</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184">
+        <v>7</v>
+      </c>
+      <c r="E184">
+        <v>0.86</v>
+      </c>
+      <c r="F184">
+        <v>0.14</v>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184">
         <v>12</v>
-      </c>
-      <c r="E184">
-        <v>0.83</v>
-      </c>
-      <c r="F184">
-        <v>0.17</v>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184">
-        <v>22</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>417</v>
@@ -12342,25 +12342,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.000366984659632409</v>
+        <v>0.0003638864657844456</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E185">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F185">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>20</v>
+        <v>353</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>418</v>
@@ -12392,7 +12392,7 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0003581676634248298</v>
+        <v>0.0003638864657844456</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -12410,7 +12410,7 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>419</v>
@@ -12442,7 +12442,7 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0003581676634248298</v>
+        <v>0.0003638864657844456</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -12460,7 +12460,7 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>353</v>
+        <v>24</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>420</v>
@@ -12492,7 +12492,7 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0003581676634248298</v>
+        <v>0.0003638864657844456</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -12510,10 +12510,10 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K188">
         <v>0.001256751248677896</v>
@@ -12542,7 +12542,7 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0003581676634248298</v>
+        <v>0.0003638864657844456</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -12560,10 +12560,10 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K189">
         <v>0.001232758449785031</v>
@@ -12592,7 +12592,7 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0003581676634248298</v>
+        <v>0.0003638864657844456</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -12610,10 +12610,10 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K190">
         <v>0.001185165728387411</v>
@@ -12642,7 +12642,7 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0003581676634248298</v>
+        <v>0.0003638864657844456</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -12660,10 +12660,10 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K191">
         <v>0.001142656405447008</v>
@@ -12692,7 +12692,7 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0003581676634248298</v>
+        <v>0.0003638864657844456</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -12710,10 +12710,10 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K192">
         <v>0.001099104926655328</v>
@@ -12742,25 +12742,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0003581676634248298</v>
+        <v>0.0003199592338513583</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E193">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F193">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>421</v>
@@ -12792,25 +12792,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0003581676634248298</v>
+        <v>0.0003193447885941602</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D194">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E194">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="F194">
-        <v>0.14</v>
+        <v>0.27</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>56</v>
+        <v>942</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>422</v>
@@ -12842,25 +12842,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0003149307873616394</v>
+        <v>0.0002989623376372523</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E195">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F195">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>423</v>
@@ -12892,25 +12892,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0003143259986630581</v>
+        <v>0.0002989623376372523</v>
       </c>
       <c r="C196">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E196">
-        <v>0.73</v>
+        <v>0.83</v>
       </c>
       <c r="F196">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>942</v>
+        <v>10</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>424</v>
@@ -12942,7 +12942,7 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.000294263876214043</v>
+        <v>0.0002989623376372523</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -12960,7 +12960,7 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>425</v>
@@ -12992,7 +12992,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.000294263876214043</v>
+        <v>0.0002989623376372523</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -13042,7 +13042,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.000294263876214043</v>
+        <v>0.0002989623376372523</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -13060,7 +13060,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>427</v>
@@ -13092,7 +13092,7 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.000294263876214043</v>
+        <v>0.0002989623376372523</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -13110,7 +13110,7 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>428</v>
@@ -13142,7 +13142,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.000294263876214043</v>
+        <v>0.0002989623376372523</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13160,7 +13160,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>429</v>
@@ -13192,7 +13192,7 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.000294263876214043</v>
+        <v>0.0002989623376372523</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -13210,7 +13210,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>430</v>
@@ -13242,7 +13242,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.000294263876214043</v>
+        <v>0.0002989623376372523</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -13260,7 +13260,7 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>431</v>
@@ -13292,25 +13292,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.000294263876214043</v>
+        <v>0.0002640641667407057</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E204">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F204">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>432</v>
@@ -13342,25 +13342,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.000294263876214043</v>
+        <v>0.0002640641667407057</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D205">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E205">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F205">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>433</v>
@@ -13392,25 +13392,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0002599141613905719</v>
+        <v>0.0002514576743277397</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D206">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E206">
-        <v>0.78</v>
+        <v>0.25</v>
       </c>
       <c r="F206">
-        <v>0.22</v>
+        <v>0.75</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>434</v>
@@ -13442,25 +13442,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0002599141613905719</v>
+        <v>0.0002262453439595478</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E207">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F207">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>435</v>
@@ -13492,25 +13492,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0002475057913188761</v>
+        <v>0.0002262453439595478</v>
       </c>
       <c r="C208">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E208">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="F208">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>436</v>
@@ -13542,7 +13542,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0002226896953478338</v>
+        <v>0.0002262453439595478</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13560,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>437</v>
@@ -13592,7 +13592,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0002226896953478338</v>
+        <v>0.0002262453439595478</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -13610,7 +13610,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>438</v>
@@ -13642,25 +13642,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0002226896953478338</v>
+        <v>0.0001451791559629184</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E211">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F211">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>439</v>
@@ -13692,25 +13692,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0002226896953478338</v>
+        <v>0.0001451791559629184</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E212">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F212">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>440</v>
@@ -13742,7 +13742,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.000142897535243945</v>
+        <v>0.0001451791559629184</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -13760,7 +13760,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>441</v>
@@ -13792,7 +13792,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.000142897535243945</v>
+        <v>0.0001451791559629184</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -13810,7 +13810,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>442</v>
@@ -13842,7 +13842,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.000142897535243945</v>
+        <v>0.0001451791559629184</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -13860,7 +13860,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>443</v>
@@ -13892,7 +13892,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.000142897535243945</v>
+        <v>0.0001451791559629184</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -13910,7 +13910,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>444</v>
@@ -13942,7 +13942,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.000142897535243945</v>
+        <v>0.0001451791559629184</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -13960,7 +13960,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>445</v>
@@ -13992,7 +13992,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.000142897535243945</v>
+        <v>0.0001451791559629184</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -14010,7 +14010,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>446</v>
@@ -14042,7 +14042,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.000142897535243945</v>
+        <v>0.0001451791559629184</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -14060,7 +14060,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>447</v>
@@ -14092,7 +14092,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.000142897535243945</v>
+        <v>0.0001451791559629184</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -14110,7 +14110,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>448</v>
@@ -14142,25 +14142,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.000142897535243945</v>
+        <v>0.0001181838526932834</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D221">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E221">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F221">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>449</v>
@@ -14192,25 +14192,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.000142897535243945</v>
+        <v>8.356860366617184E-05</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D222">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E222">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F222">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>450</v>
@@ -14242,25 +14242,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0001163264873906365</v>
+        <v>8.356860366617184E-05</v>
       </c>
       <c r="C223">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D223">
         <v>6</v>
       </c>
       <c r="E223">
+        <v>0.67</v>
+      </c>
+      <c r="F223">
         <v>0.33</v>
       </c>
-      <c r="F223">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>451</v>
@@ -14292,7 +14292,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>8.225524806552964E-05</v>
+        <v>8.356860366617184E-05</v>
       </c>
       <c r="C224">
         <v>2</v>
@@ -14310,7 +14310,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>452</v>
@@ -14342,13 +14342,13 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>8.225524806552964E-05</v>
+        <v>5.909192634664109E-05</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D225">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E225">
         <v>0.67</v>
@@ -14360,7 +14360,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>453</v>
@@ -14392,13 +14392,13 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>8.225524806552964E-05</v>
+        <v>5.909192634664109E-05</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E226">
         <v>0.67</v>
@@ -14410,7 +14410,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>454</v>
@@ -14442,7 +14442,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>5.816324369531765E-05</v>
+        <v>5.909192634664109E-05</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14460,7 +14460,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>455</v>
@@ -14492,7 +14492,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>5.816324369531765E-05</v>
+        <v>5.909192634664109E-05</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14510,7 +14510,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>456</v>
@@ -14542,7 +14542,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>5.816324369531765E-05</v>
+        <v>5.909192634664109E-05</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14560,7 +14560,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>457</v>
@@ -14592,7 +14592,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>5.816324369531765E-05</v>
+        <v>5.909192634664109E-05</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14610,7 +14610,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>458</v>
@@ -14642,7 +14642,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>5.816324369531765E-05</v>
+        <v>5.909192634664109E-05</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14660,7 +14660,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>459</v>
@@ -14692,7 +14692,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>5.816324369531765E-05</v>
+        <v>5.909192634664109E-05</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -14710,7 +14710,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>460</v>
@@ -14742,7 +14742,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>5.816324369531765E-05</v>
+        <v>5.909192634664109E-05</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -14760,7 +14760,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>461</v>
@@ -14792,7 +14792,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>5.816324369531765E-05</v>
+        <v>5.909192634664109E-05</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14810,7 +14810,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>462</v>
@@ -14842,7 +14842,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>5.816324369531765E-05</v>
+        <v>5.909192634664109E-05</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -14860,7 +14860,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>463</v>
@@ -14892,7 +14892,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>5.816324369531765E-05</v>
+        <v>5.909192634664109E-05</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -14910,7 +14910,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>464</v>
@@ -14942,7 +14942,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>5.816324369531765E-05</v>
+        <v>5.909192634664109E-05</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -14960,7 +14960,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>465</v>
@@ -14992,25 +14992,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>5.816324369531765E-05</v>
+        <v>2.88772088794043E-05</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E238">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F238">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>466</v>
@@ -15042,25 +15042,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>5.816324369531765E-05</v>
+        <v>0</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E239">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F239">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>11</v>
+        <v>234</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>467</v>
@@ -15092,25 +15092,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>2.842337762760809E-05</v>
+        <v>0</v>
       </c>
       <c r="C240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D240">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E240">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F240">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>468</v>
@@ -15160,7 +15160,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>234</v>
+        <v>4</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>469</v>
@@ -15210,7 +15210,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>470</v>
@@ -15260,7 +15260,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>471</v>
@@ -15310,7 +15310,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>472</v>
@@ -15360,7 +15360,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>473</v>
@@ -15395,10 +15395,10 @@
         <v>0</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E246">
         <v>0.5</v>
@@ -15410,7 +15410,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>474</v>
@@ -15460,7 +15460,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>475</v>
@@ -15495,10 +15495,10 @@
         <v>0</v>
       </c>
       <c r="C248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D248">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E248">
         <v>0.5</v>
@@ -15510,7 +15510,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>476</v>
@@ -15545,10 +15545,10 @@
         <v>0</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D249">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E249">
         <v>0.5</v>
@@ -15560,7 +15560,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>477</v>
@@ -15610,7 +15610,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>478</v>
@@ -15645,10 +15645,10 @@
         <v>0</v>
       </c>
       <c r="C251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E251">
         <v>0.5</v>
@@ -15660,7 +15660,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>479</v>
@@ -15710,7 +15710,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>480</v>
@@ -15738,30 +15738,6 @@
       </c>
     </row>
     <row r="253" spans="1:17">
-      <c r="A253" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B253">
-        <v>0</v>
-      </c>
-      <c r="C253">
-        <v>1</v>
-      </c>
-      <c r="D253">
-        <v>2</v>
-      </c>
-      <c r="E253">
-        <v>0.5</v>
-      </c>
-      <c r="F253">
-        <v>0.5</v>
-      </c>
-      <c r="G253" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253">
-        <v>13</v>
-      </c>
       <c r="J253" s="1" t="s">
         <v>481</v>
       </c>
@@ -15788,30 +15764,6 @@
       </c>
     </row>
     <row r="254" spans="1:17">
-      <c r="A254" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B254">
-        <v>0</v>
-      </c>
-      <c r="C254">
-        <v>1</v>
-      </c>
-      <c r="D254">
-        <v>2</v>
-      </c>
-      <c r="E254">
-        <v>0.5</v>
-      </c>
-      <c r="F254">
-        <v>0.5</v>
-      </c>
-      <c r="G254" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254">
-        <v>51</v>
-      </c>
       <c r="J254" s="1" t="s">
         <v>482</v>
       </c>
@@ -15917,7 +15869,7 @@
     </row>
     <row r="258" spans="10:17">
       <c r="J258" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K258">
         <v>0.001058159608067585</v>
@@ -15943,7 +15895,7 @@
     </row>
     <row r="259" spans="10:17">
       <c r="J259" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K259">
         <v>0.00101506297087746</v>
@@ -15969,7 +15921,7 @@
     </row>
     <row r="260" spans="10:17">
       <c r="J260" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K260">
         <v>0.0009559910494878982</v>
@@ -15995,7 +15947,7 @@
     </row>
     <row r="261" spans="10:17">
       <c r="J261" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K261">
         <v>0.0009275865538267496</v>
@@ -16021,7 +15973,7 @@
     </row>
     <row r="262" spans="10:17">
       <c r="J262" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K262">
         <v>0.0009224295795284028</v>
@@ -19453,7 +19405,7 @@
     </row>
     <row r="394" spans="10:17">
       <c r="J394" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K394">
         <v>0.0008830792018253088</v>
@@ -19479,7 +19431,7 @@
     </row>
     <row r="395" spans="10:17">
       <c r="J395" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K395">
         <v>0.000854673389572906</v>
@@ -19505,7 +19457,7 @@
     </row>
     <row r="396" spans="10:17">
       <c r="J396" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K396">
         <v>0.0007924500396705756</v>
@@ -19531,7 +19483,7 @@
     </row>
     <row r="397" spans="10:17">
       <c r="J397" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K397">
         <v>0.0007924500396705756</v>
@@ -19557,7 +19509,7 @@
     </row>
     <row r="398" spans="10:17">
       <c r="J398" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K398">
         <v>0.0007627210268068344</v>
@@ -19583,7 +19535,7 @@
     </row>
     <row r="399" spans="10:17">
       <c r="J399" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K399">
         <v>0.0006815904121854376</v>
@@ -19609,7 +19561,7 @@
     </row>
     <row r="400" spans="10:17">
       <c r="J400" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K400">
         <v>0.000663284625534703</v>
@@ -27929,7 +27881,7 @@
     </row>
     <row r="720" spans="10:17">
       <c r="J720" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K720">
         <v>0.0005753156640602433</v>
@@ -27955,7 +27907,7 @@
     </row>
     <row r="721" spans="10:17">
       <c r="J721" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K721">
         <v>0.0005395293900192559</v>
@@ -27981,7 +27933,7 @@
     </row>
     <row r="722" spans="10:17">
       <c r="J722" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K722">
         <v>0.0005067292593981886</v>
@@ -28007,7 +27959,7 @@
     </row>
     <row r="723" spans="10:17">
       <c r="J723" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K723">
         <v>0.0005067292593981886</v>
@@ -28033,7 +27985,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K724">
         <v>0.0004675047798911514</v>
@@ -28059,7 +28011,7 @@
     </row>
     <row r="725" spans="10:17">
       <c r="J725" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K725">
         <v>0.0004570431688851607</v>
@@ -28085,7 +28037,7 @@
     </row>
     <row r="726" spans="10:17">
       <c r="J726" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K726">
         <v>0.0004570431688851607</v>
@@ -28111,7 +28063,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K727">
         <v>0.0004068096073798393</v>
@@ -28137,7 +28089,7 @@
     </row>
     <row r="728" spans="10:17">
       <c r="J728" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K728">
         <v>0.0004068096073798393</v>
@@ -28163,7 +28115,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K729">
         <v>0.0003950461601841688</v>
@@ -28189,7 +28141,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K730">
         <v>0.0003587476652706646</v>
@@ -28215,7 +28167,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K731">
         <v>0.000356088798913879</v>
@@ -28241,7 +28193,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K732">
         <v>0.000356088798913879</v>
@@ -28267,7 +28219,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K733">
         <v>0.000304984680641431</v>
@@ -28293,7 +28245,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K734">
         <v>0.000304984680641431</v>
@@ -28319,7 +28271,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K735">
         <v>0.000304984680641431</v>
@@ -28345,7 +28297,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K736">
         <v>0.000304984680641431</v>
@@ -28371,7 +28323,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K737">
         <v>0.0002503489407463095</v>
@@ -28397,7 +28349,7 @@
     </row>
     <row r="738" spans="10:17">
       <c r="J738" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K738">
         <v>0.0002503489407463095</v>
@@ -28423,7 +28375,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K739">
         <v>0.0002147315432709423</v>
@@ -28449,7 +28401,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K740">
         <v>0.0002147315432709423</v>
@@ -28475,7 +28427,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K741">
         <v>0.0002147315432709423</v>
@@ -28501,7 +28453,7 @@
     </row>
     <row r="742" spans="10:17">
       <c r="J742" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K742">
         <v>0.0002024514505680496</v>
@@ -28527,7 +28479,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K743">
         <v>0.0002024514505680496</v>
@@ -28553,7 +28505,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K744">
         <v>0.0002024514505680496</v>
@@ -28579,7 +28531,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K745">
         <v>0.0002024514505680496</v>
@@ -28605,7 +28557,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K746">
         <v>0.0002024514505680496</v>
@@ -28631,7 +28583,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K747">
         <v>0.0002024514505680496</v>
@@ -28657,7 +28609,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K748">
         <v>0.0002024514505680496</v>
@@ -28683,7 +28635,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K749">
         <v>0.0002024514505680496</v>
@@ -28709,7 +28661,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K750">
         <v>0.0002024514505680496</v>
@@ -28735,7 +28687,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K751">
         <v>0.0001796441426420561</v>
@@ -28761,7 +28713,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K752">
         <v>0.0001518381303815358</v>
@@ -28787,7 +28739,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K753">
         <v>0.0001518381303815358</v>
@@ -28813,7 +28765,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K754">
         <v>0.0001518381303815358</v>
@@ -28839,7 +28791,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K755">
         <v>0.0001518381303815358</v>
@@ -28865,7 +28817,7 @@
     </row>
     <row r="756" spans="10:17">
       <c r="J756" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K756">
         <v>0.0001518381303815358</v>
@@ -28891,7 +28843,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K757">
         <v>0.0001518381303815358</v>
@@ -28917,7 +28869,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K758">
         <v>0.0001518381303815358</v>
@@ -28943,7 +28895,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K759">
         <v>0.0001518381303815358</v>
@@ -28969,7 +28921,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K760">
         <v>0.0001518381303815358</v>
@@ -28995,7 +28947,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K761">
         <v>0.0001453463093382095</v>
@@ -29021,7 +28973,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K762">
         <v>0.0001194997449724898</v>
@@ -29047,7 +28999,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K763">
         <v>0.0001122077512363534</v>
@@ -29073,7 +29025,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K764">
         <v>0.0001122077512363534</v>
@@ -29099,7 +29051,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K765">
         <v>0.0001027753609534856</v>
@@ -29125,7 +29077,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K766">
         <v>0.0001027753609534856</v>
@@ -29151,7 +29103,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K767">
         <v>0.0001027753609534856</v>
@@ -29177,7 +29129,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K768">
         <v>0.0001027753609534856</v>
@@ -29203,7 +29155,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K769">
         <v>5.71142212062014E-05</v>
@@ -29229,7 +29181,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K770">
         <v>5.71142212062014E-05</v>
@@ -29255,7 +29207,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K771">
         <v>5.71142212062014E-05</v>
@@ -29281,7 +29233,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K772">
         <v>5.71142212062014E-05</v>
@@ -29307,7 +29259,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K773">
         <v>5.71142212062014E-05</v>
@@ -29333,7 +29285,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K774">
         <v>5.71142212062014E-05</v>
@@ -29359,7 +29311,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K775">
         <v>5.71142212062014E-05</v>
@@ -29385,7 +29337,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K776">
         <v>5.71142212062014E-05</v>
@@ -29411,7 +29363,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K777">
         <v>5.71142212062014E-05</v>
@@ -29437,7 +29389,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K778">
         <v>5.71142212062014E-05</v>
@@ -29463,7 +29415,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K779">
         <v>5.138768047674279E-05</v>
@@ -29489,7 +29441,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K780">
         <v>3.297491098795635E-05</v>
@@ -29515,7 +29467,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K781">
         <v>2.684339908802172E-05</v>
@@ -29541,7 +29493,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K782">
         <v>2.684339908802172E-05</v>
@@ -29567,7 +29519,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K783">
         <v>2.684339908802172E-05</v>
@@ -29593,7 +29545,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K784">
         <v>1.898114952523704E-05</v>
@@ -29619,7 +29571,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K785">
         <v>1.898114952523704E-05</v>
@@ -29645,7 +29597,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K786">
         <v>1.898114952523704E-05</v>
@@ -29671,7 +29623,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K787">
         <v>1.898114952523704E-05</v>
@@ -29697,7 +29649,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K788">
         <v>1.898114952523704E-05</v>
@@ -29723,7 +29675,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K789">
         <v>1.898114952523704E-05</v>
@@ -29749,7 +29701,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K790">
         <v>1.898114952523704E-05</v>
@@ -29775,7 +29727,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K791">
         <v>1.898114952523704E-05</v>
@@ -29801,7 +29753,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K792">
         <v>1.898114952523704E-05</v>
@@ -29827,7 +29779,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K793">
         <v>1.898114952523704E-05</v>
@@ -29853,7 +29805,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K794">
         <v>1.898114952523704E-05</v>
@@ -29879,7 +29831,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K795">
         <v>1.898114952523704E-05</v>
@@ -29905,7 +29857,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K796">
         <v>1.898114952523704E-05</v>
@@ -29931,7 +29883,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K797">
         <v>1.898114952523675E-05</v>
@@ -29957,7 +29909,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K798">
         <v>8.033045160650572E-06</v>
@@ -29983,7 +29935,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K799">
         <v>0</v>
@@ -30009,7 +29961,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K800">
         <v>0</v>
@@ -30035,7 +29987,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K801">
         <v>0</v>
@@ -30061,7 +30013,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K802">
         <v>0</v>
@@ -30087,7 +30039,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K803">
         <v>0</v>
@@ -30113,7 +30065,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K804">
         <v>0</v>
@@ -30139,7 +30091,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K805">
         <v>0</v>
@@ -30165,7 +30117,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K806">
         <v>0</v>
@@ -30191,7 +30143,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K807">
         <v>0</v>
@@ -30217,7 +30169,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K808">
         <v>0</v>
@@ -30243,7 +30195,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K809">
         <v>0</v>
@@ -30269,7 +30221,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K810">
         <v>0</v>
@@ -30295,7 +30247,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K811">
         <v>0</v>
@@ -30321,7 +30273,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K812">
         <v>0</v>
